--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H2">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I2">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J2">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N2">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O2">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P2">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q2">
-        <v>0.03360368488125</v>
+        <v>0.118502783728</v>
       </c>
       <c r="R2">
-        <v>0.134414739525</v>
+        <v>0.4740111349119999</v>
       </c>
       <c r="S2">
-        <v>0.0001694960080581708</v>
+        <v>0.002358638466688442</v>
       </c>
       <c r="T2">
-        <v>0.000144775633579503</v>
+        <v>0.001749733203032992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H3">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I3">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J3">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.193473</v>
       </c>
       <c r="O3">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P3">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q3">
-        <v>0.1128745666125</v>
+        <v>0.107470897968</v>
       </c>
       <c r="R3">
-        <v>0.677247399675</v>
+        <v>0.644825387808</v>
       </c>
       <c r="S3">
-        <v>0.000569336027275684</v>
+        <v>0.002139063623844474</v>
       </c>
       <c r="T3">
-        <v>0.0007294506668279691</v>
+        <v>0.00238026558472249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H4">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I4">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J4">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N4">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O4">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P4">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q4">
-        <v>11.93982355974375</v>
+        <v>4.144467007912</v>
       </c>
       <c r="R4">
-        <v>47.759294238975</v>
+        <v>16.577868031648</v>
       </c>
       <c r="S4">
-        <v>0.06022412236774269</v>
+        <v>0.08249003948480813</v>
       </c>
       <c r="T4">
-        <v>0.05144065380918659</v>
+        <v>0.06119444037081281</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I5">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J5">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N5">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O5">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P5">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q5">
-        <v>0.06140599124400001</v>
+        <v>0.227435164632</v>
       </c>
       <c r="R5">
-        <v>0.368435947464</v>
+        <v>1.364610987792</v>
       </c>
       <c r="S5">
-        <v>0.0003097300317954247</v>
+        <v>0.004526790941974335</v>
       </c>
       <c r="T5">
-        <v>0.0003968355547617917</v>
+        <v>0.005037234315195122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I6">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J6">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -815,10 +815,10 @@
         <v>0.193473</v>
       </c>
       <c r="O6">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P6">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q6">
         <v>0.206262339192</v>
@@ -827,10 +827,10 @@
         <v>1.856361052728</v>
       </c>
       <c r="S6">
-        <v>0.001040381232871623</v>
+        <v>0.00410537433925647</v>
       </c>
       <c r="T6">
-        <v>0.001999452206735283</v>
+        <v>0.006852447825679192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I7">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J7">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N7">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O7">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P7">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q7">
-        <v>21.818342350116</v>
+        <v>7.954222733028001</v>
       </c>
       <c r="R7">
-        <v>130.910054100696</v>
+        <v>47.725336398168</v>
       </c>
       <c r="S7">
-        <v>0.1100510835005077</v>
+        <v>0.1583181012337233</v>
       </c>
       <c r="T7">
-        <v>0.1410008016332931</v>
+        <v>0.1761701351958673</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H8">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I8">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J8">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N8">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O8">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P8">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q8">
-        <v>0.04923941529016667</v>
+        <v>0.186100829217</v>
       </c>
       <c r="R8">
-        <v>0.2954364917410001</v>
+        <v>1.116604975302</v>
       </c>
       <c r="S8">
-        <v>0.0002483621769545429</v>
+        <v>0.003704086610162206</v>
       </c>
       <c r="T8">
-        <v>0.0003182091891518613</v>
+        <v>0.004121761401914024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H9">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I9">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J9">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +1001,22 @@
         <v>0.193473</v>
       </c>
       <c r="O9">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P9">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q9">
-        <v>0.165394886923</v>
+        <v>0.168775978077</v>
       </c>
       <c r="R9">
-        <v>1.488553982307</v>
+        <v>1.518983802693</v>
       </c>
       <c r="S9">
-        <v>0.0008342469936183457</v>
+        <v>0.003359258758503901</v>
       </c>
       <c r="T9">
-        <v>0.001603294003822445</v>
+        <v>0.00560707586528464</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H10">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I10">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J10">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N10">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O10">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P10">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q10">
-        <v>17.4954006629665</v>
+        <v>6.5086128998055</v>
       </c>
       <c r="R10">
-        <v>104.972403977799</v>
+        <v>39.051677398833</v>
       </c>
       <c r="S10">
-        <v>0.08824629150732562</v>
+        <v>0.1295451825461092</v>
       </c>
       <c r="T10">
-        <v>0.1130638377007962</v>
+        <v>0.1441527667732038</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H11">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I11">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J11">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N11">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O11">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P11">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q11">
-        <v>0.33537057816375</v>
+        <v>0.340245797254</v>
       </c>
       <c r="R11">
-        <v>1.341482312655</v>
+        <v>1.360983189016</v>
       </c>
       <c r="S11">
-        <v>0.001691599430830096</v>
+        <v>0.006772134799587341</v>
       </c>
       <c r="T11">
-        <v>0.001444885824550532</v>
+        <v>0.005023842899878543</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H12">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I12">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J12">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1187,22 +1187,22 @@
         <v>0.193473</v>
       </c>
       <c r="O12">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P12">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q12">
-        <v>1.1265076671975</v>
+        <v>0.3085709905740001</v>
       </c>
       <c r="R12">
-        <v>6.759046003184999</v>
+        <v>1.851425943444</v>
       </c>
       <c r="S12">
-        <v>0.0056820718713333</v>
+        <v>0.006141690390518868</v>
       </c>
       <c r="T12">
-        <v>0.007280043624398162</v>
+        <v>0.006834230691230621</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H13">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I13">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J13">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N13">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O13">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P13">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q13">
-        <v>119.1615010245113</v>
+        <v>11.899614818641</v>
       </c>
       <c r="R13">
-        <v>476.646004098045</v>
+        <v>47.59845927456401</v>
       </c>
       <c r="S13">
-        <v>0.6010471413849</v>
+        <v>0.2368458222419867</v>
       </c>
       <c r="T13">
-        <v>0.5133866083458667</v>
+        <v>0.175701789413407</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H14">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I14">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J14">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N14">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O14">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P14">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q14">
-        <v>0.0209803880215</v>
+        <v>0.3483909460086667</v>
       </c>
       <c r="R14">
-        <v>0.125882328129</v>
+        <v>2.090345676052</v>
       </c>
       <c r="S14">
-        <v>0.000105824466266791</v>
+        <v>0.006934253026394167</v>
       </c>
       <c r="T14">
-        <v>0.0001355855308409033</v>
+        <v>0.007716163114783479</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H15">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I15">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J15">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.193473</v>
       </c>
       <c r="O15">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P15">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q15">
-        <v>0.07047299168700001</v>
+        <v>0.3159578757020001</v>
       </c>
       <c r="R15">
-        <v>0.634256925183</v>
+        <v>2.843620881318</v>
       </c>
       <c r="S15">
-        <v>0.0003554637180140951</v>
+        <v>0.006288716400067307</v>
       </c>
       <c r="T15">
-        <v>0.0006831464206979892</v>
+        <v>0.0104967531486444</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H16">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I16">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J16">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N16">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O16">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P16">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q16">
-        <v>7.4546030316885</v>
+        <v>12.18447985915967</v>
       </c>
       <c r="R16">
-        <v>44.727618190131</v>
+        <v>73.10687915495801</v>
       </c>
       <c r="S16">
-        <v>0.03760080062631923</v>
+        <v>0.2425156775925942</v>
       </c>
       <c r="T16">
-        <v>0.04817529152577749</v>
+        <v>0.2698618753994004</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H17">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I17">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J17">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N17">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O17">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P17">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q17">
-        <v>0.05061477787250001</v>
+        <v>0.1416173905743333</v>
       </c>
       <c r="R17">
-        <v>0.303688667235</v>
+        <v>0.8497043434459999</v>
       </c>
       <c r="S17">
-        <v>0.0002552994657715843</v>
+        <v>0.002818703615666542</v>
       </c>
       <c r="T17">
-        <v>0.0003270974549757957</v>
+        <v>0.003136542146346057</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H18">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I18">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J18">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,22 +1559,22 @@
         <v>0.193473</v>
       </c>
       <c r="O18">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P18">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q18">
-        <v>0.170014721205</v>
+        <v>0.128433676021</v>
       </c>
       <c r="R18">
-        <v>1.530132490845</v>
+        <v>1.155903084189</v>
       </c>
       <c r="S18">
-        <v>0.0008575493032149401</v>
+        <v>0.002556299515939179</v>
       </c>
       <c r="T18">
-        <v>0.001648077447499469</v>
+        <v>0.004266823829506059</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H19">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I19">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J19">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N19">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O19">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P19">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q19">
-        <v>17.9840847647775</v>
+        <v>4.952867641734834</v>
       </c>
       <c r="R19">
-        <v>107.904508588665</v>
+        <v>29.717205850409</v>
       </c>
       <c r="S19">
-        <v>0.09071119988720018</v>
+        <v>0.09858016641217522</v>
       </c>
       <c r="T19">
-        <v>0.1162219534272382</v>
+        <v>0.1096961188210909</v>
       </c>
     </row>
   </sheetData>
